--- a/Milestone 1 Rubric.xlsx
+++ b/Milestone 1 Rubric.xlsx
@@ -13,9 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="55">
   <si>
     <t>Team Name</t>
+  </si>
+  <si>
+    <t>Team Business Casual</t>
   </si>
   <si>
     <t>Member name 1</t>
@@ -27,22 +30,19 @@
     <t>Member name 3</t>
   </si>
   <si>
-    <t>Milestone 1 rubric</t>
-  </si>
-  <si>
-    <t>Team Business Casual</t>
-  </si>
-  <si>
     <t>Dallas Lillie</t>
   </si>
   <si>
-    <t>Task Name</t>
+    <t>Milestone 1 rubric</t>
   </si>
   <si>
     <t>Antonio Bissessar</t>
   </si>
   <si>
     <t>Emilio Cantu</t>
+  </si>
+  <si>
+    <t>Task Name</t>
   </si>
   <si>
     <t>Member name 4</t>
@@ -66,97 +66,115 @@
     <t>These tasks can be broken down into smaller pieces if desired, or otherwise adjusted if good reason is given and agreed to by Course Director.</t>
   </si>
   <si>
-    <t>Skinned animation</t>
+    <t>Render bind pose joints</t>
   </si>
   <si>
     <t>Point Value ( 4 person</t>
   </si>
   <si>
-    <t>Implement the skinned animation algorithm, preferably running in a vertex shader. This will require per-vertex joint influences and weights extracted from FBX.</t>
+    <t>Render a mesh or other effective indicator at each of a meshes' joint transfomrs. This will require extracting bind pose skeletal data from FBX.</t>
   </si>
   <si>
-    <t>Render bind pose joints</t>
-  </si>
-  <si>
-    <t>Render a mesh or other effective indicator at each of a meshes' joint transfomrs. This will require extracting bind pose skeletal data from FBX.</t>
+    <t>Rendering system (D)</t>
   </si>
   <si>
     <t>Animation System</t>
   </si>
   <si>
+    <t>Skinned animation</t>
+  </si>
+  <si>
+    <t>Get a procedurally created ground quad rendering. Mesh rendering must include one correctly applied texture.</t>
+  </si>
+  <si>
+    <t>Implement the skinned animation algorithm, preferably running in a vertex shader. This will require per-vertex joint influences and weights extracted from FBX.</t>
+  </si>
+  <si>
+    <t>Create Animation, Keyframe and Interpolator objects as described in class materials or other animation system architecture.</t>
+  </si>
+  <si>
     <t>Joint influences</t>
+  </si>
+  <si>
+    <t>Animate joints</t>
+  </si>
+  <si>
+    <t>Render FBX mesh data (D)</t>
   </si>
   <si>
     <t>Per-vertex joint influences and weights will need to be extracted from FBX.</t>
   </si>
   <si>
-    <t>Create Animation, Keyframe and Interpolator objects as described in class materials or other animation system architecture.</t>
+    <t>Ability to extract needed mesh data from FBX and render it.</t>
   </si>
   <si>
     <t>Flexible Tasks</t>
   </si>
   <si>
-    <t>Animate joints</t>
+    <t>Interpolate between keyframes to create current "between keys" based on time, and render resulting joints in the same manner that the bind pose joints were rendered. This will require extracting keyframe data from FBX as well as creating basic animation system objects (animation, keyframe and interpolator)</t>
   </si>
   <si>
     <t>These tasks are your chance to personalize and specialize your project. Pick things you wish to implement and try to come up with point values that are relative to the complexity of the task.</t>
   </si>
   <si>
-    <t>Interpolate between keyframes to create current "between keys" based on time, and render resulting joints in the same manner that the bind pose joints were rendered. This will require extracting keyframe data from FBX as well as creating basic animation system objects (animation, keyframe and interpolator)</t>
+    <t>Render mesh data in bind pose (D)</t>
+  </si>
+  <si>
+    <t>Render mesh data in bind pose doing the correct mathematics.</t>
+  </si>
+  <si>
+    <t>These tasks are your chance to personalize and specialize your project. Pick things you wish to implement to put here and try to come up with point values that are relative to the complexity of the task.</t>
   </si>
   <si>
     <t>Rubric Total (should be 100)</t>
   </si>
   <si>
-    <t>Rendering system</t>
+    <t>Binary Reading (D)(AB)</t>
   </si>
   <si>
-    <t>These tasks are your chance to personalize and specialize your project. Pick things you wish to implement to put here and try to come up with point values that are relative to the complexity of the task.</t>
+    <t>Reading binary data from a file and rendering it. A middleman step between FBXloading and rendering included to reduce load times.</t>
   </si>
   <si>
-    <t>Must be able to render multiple mesh instances. Must be able to change what meshes are rendered (not at run-time). Mesh rendering must include one correctly applied texture and type of dynamic light (Directional, Point or Spot)</t>
+    <t>Binary Writing (D)(AB)</t>
   </si>
   <si>
-    <t>FBX mesh data to binary</t>
+    <t>Writing the mesh data loaded from an FBX to a binary file</t>
   </si>
   <si>
-    <t>Ability to extract needed mesh data from FBX. This can be done as a load step or in a seperate application. Loading from your binary format and not the FBX will typically reduce load time on your project drastically.</t>
+    <t>No Warnings/Memory Leaks (EC)</t>
   </si>
   <si>
-    <t>Binary Reading/Writing</t>
-  </si>
-  <si>
-    <t>Writing the mesh data loaded from an FBX to a binary file then later reading the binary data and rendering it. A middleman step between FBXloading and rendering.</t>
-  </si>
-  <si>
-    <t>No Warnings/Memory Leaks</t>
-  </si>
-  <si>
-    <t>Implement Camera with controls</t>
+    <t>Implement Camera with controls (EC)</t>
   </si>
   <si>
     <t>Implement a simple camera systems with keyboard controls for translation, and mouse based controls for rotation. (This is an example task and maybe freely changed. )</t>
   </si>
   <si>
-    <t>Lighting (Point/Direction/Spot)</t>
+    <t>Lighting (Point/Direction/Spot)(WK)</t>
   </si>
   <si>
-    <t>The three types of lights are all dynamic. Specular lighting, not from a normal map, is also included.</t>
+    <t xml:space="preserve">The three types of lights are all dynamic. </t>
   </si>
   <si>
-    <t>geometry shader point to quad</t>
+    <t>Lighting (specular)(WK)</t>
+  </si>
+  <si>
+    <t>Specular highlighting, not from a texture map, is also included.</t>
+  </si>
+  <si>
+    <t>geometry shader point to quad(AB)</t>
   </si>
   <si>
     <t>Taking a single point and expanding it to a full ground quad oriented around the point using the geometry shader.</t>
   </si>
   <si>
-    <t>skybox</t>
+    <t>skybox (EC)</t>
   </si>
   <si>
     <t>A single box that is always seen at infinite distance from the camera</t>
   </si>
   <si>
-    <t>Reflective surfaces</t>
+    <t>Reflective surfaces (D)(EC)</t>
   </si>
   <si>
     <t>An object with a surface that reflects the skybox scenery and only the skybox scenery.</t>
@@ -166,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -183,13 +201,24 @@
       <i/>
       <sz val="12.0"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -218,6 +247,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -247,7 +279,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="34.29"/>
+    <col customWidth="1" min="1" max="1" width="42.57"/>
     <col customWidth="1" min="2" max="4" width="23.86"/>
     <col customWidth="1" min="5" max="5" width="284.0"/>
   </cols>
@@ -257,7 +289,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -288,10 +320,10 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -322,10 +354,10 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -356,10 +388,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -454,7 +486,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -486,7 +518,7 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -560,7 +592,7 @@
     </row>
     <row r="10" ht="33.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>45.0</v>
@@ -569,10 +601,10 @@
         <v>35.0</v>
       </c>
       <c r="D10" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -600,7 +632,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1">
         <v>40.0</v>
@@ -609,10 +641,10 @@
         <v>35.0</v>
       </c>
       <c r="D11" s="1">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -640,13 +672,15 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1">
+        <v>10.0</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -676,16 +710,14 @@
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>5.0</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>5.0</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -711,11 +743,17 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -741,15 +779,19 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
+      <c r="A15" s="1" t="s">
+        <v>42</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1" t="s">
-        <v>32</v>
+      <c r="B15" s="1">
+        <v>5.0</v>
       </c>
+      <c r="C15" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -775,21 +817,11 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -815,16 +847,14 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
+      <c r="A17" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="1">
-        <v>15.0</v>
-      </c>
+      <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -851,13 +881,17 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>12.0</v>
+      </c>
       <c r="D18" s="1">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>44</v>
@@ -893,7 +927,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="1">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>46</v>
@@ -929,7 +963,7 @@
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>48</v>
@@ -959,11 +993,17 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -990,21 +1030,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
-      <c r="B22" s="2" t="str">
-        <f t="shared" ref="B22:C22" si="1">sum(B9:B16)</f>
-        <v>105</v>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1">
+        <v>5.0</v>
       </c>
-      <c r="C22" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>87</v>
+      <c r="E22" s="1" t="s">
+        <v>52</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f>sum(D10:D20)</f>
-        <v>100</v>
-      </c>
-      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1030,11 +1065,17 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="D23" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1060,7 +1101,7 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
+      <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1090,10 +1131,21 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" ref="B25:C25" si="1">sum(B9:B18)</f>
+        <v>105</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>sum(D10:D23)</f>
+        <v>100</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1120,7 +1172,7 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1150,11 +1202,11 @@
       <c r="AB26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1180,11 +1232,11 @@
       <c r="AB27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1210,7 +1262,7 @@
       <c r="AB28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1240,11 +1292,11 @@
       <c r="AB29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1270,11 +1322,11 @@
       <c r="AB30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1360,8 +1412,7 @@
       <c r="AB33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1450,7 +1501,7 @@
       <c r="AB36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
+      <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1480,7 +1531,7 @@
       <c r="AB37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1510,11 +1561,11 @@
       <c r="AB38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1540,11 +1591,11 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1570,7 +1621,7 @@
       <c r="AB40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1600,11 +1651,11 @@
       <c r="AB41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1630,11 +1681,11 @@
       <c r="AB42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1720,7 +1771,7 @@
       <c r="AB45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1810,7 +1861,7 @@
       <c r="AB48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
+      <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -30609,6 +30660,96 @@
       <c r="AA1008" s="2"/>
       <c r="AB1008" s="2"/>
     </row>
+    <row r="1009">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+      <c r="AA1009" s="2"/>
+      <c r="AB1009" s="2"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+      <c r="AA1010" s="2"/>
+      <c r="AB1010" s="2"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="2"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+      <c r="AA1011" s="2"/>
+      <c r="AB1011" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30638,7 +30779,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -30648,7 +30789,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -30658,7 +30799,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -30676,7 +30817,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -30686,7 +30827,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -30714,7 +30855,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
         <v>40.0</v>
@@ -30723,14 +30864,14 @@
         <v>32.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>30.0</v>
@@ -30755,19 +30896,19 @@
         <v>24.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -30814,7 +30955,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ref="B18:C18" si="1">sum(B8:B13)</f>
@@ -30855,7 +30996,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -30865,7 +31006,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -30875,7 +31016,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -30893,7 +31034,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -30903,7 +31044,7 @@
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>12</v>
@@ -30931,7 +31072,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>45.0</v>
@@ -30940,14 +31081,14 @@
         <v>35.0</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1">
         <v>40.0</v>
@@ -30956,7 +31097,7 @@
         <v>35.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -30971,12 +31112,12 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -31023,7 +31164,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ref="B18:C18" si="1">sum(B8:B13)</f>
